--- a/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6149C3F7-1C21-D948-BA13-953F90C4E5EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6313A8-5A3C-4C6E-B23B-3563E1B08FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="18880" windowWidth="21420" windowHeight="9760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -109,6 +109,39 @@
   </si>
   <si>
     <t>TextEN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerTime</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>时间节点</t>
+  </si>
+  <si>
+    <t>步骤类型</t>
+  </si>
+  <si>
+    <t>StepParameter</t>
+  </si>
+  <si>
+    <t>array,string</t>
+  </si>
+  <si>
+    <t>步骤参数</t>
+  </si>
+  <si>
+    <t>StepStyle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStepData</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStepType</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +196,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -184,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -192,6 +233,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -204,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,11 +335,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -500,19 +651,20 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +694,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -585,7 +737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -599,7 +751,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -614,7 +766,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -628,7 +780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -642,10 +794,66 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -657,7 +865,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -669,7 +877,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -681,7 +889,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>

--- a/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6313A8-5A3C-4C6E-B23B-3563E1B08FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4D62BE-3216-4DD2-8610-EA3103C740FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="25410" yWindow="1530" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,21 +127,22 @@
     <t>StepParameter</t>
   </si>
   <si>
+    <t>步骤参数</t>
+  </si>
+  <si>
+    <t>StepStyle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStepData</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStepType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>array,string</t>
-  </si>
-  <si>
-    <t>步骤参数</t>
-  </si>
-  <si>
-    <t>StepStyle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillStepData</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillStepType</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +370,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +655,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,7 +800,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -823,10 +827,10 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
@@ -844,12 +848,12 @@
       <c r="H10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>32</v>
+      <c r="I10" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="12"/>
     </row>
